--- a/examples/multiscale-migration/data/A&B values for RTS.xlsx
+++ b/examples/multiscale-migration/data/A&B values for RTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbrenne1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrenner/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ACD4A5-E719-48F1-93BA-FE413C638CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A0DEFF-65EF-2743-9C7D-798D866BD75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="5780" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Burundi</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -882,16 +879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F9B57A-779F-4DFB-B712-C5F8B0049503}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>162</v>
       </c>
@@ -899,7 +891,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +902,7 @@
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -921,7 +913,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -932,7 +924,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -943,7 +935,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -954,7 +946,7 @@
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -965,7 +957,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -976,7 +968,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -987,7 +979,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -998,7 +990,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1001,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1012,7 @@
         <v>2.8299999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1031,7 +1023,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +1034,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1045,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1056,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1067,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1078,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1089,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1100,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1111,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1122,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1133,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1144,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1155,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1166,7 @@
         <v>2.76E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1185,7 +1177,7 @@
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1207,7 +1199,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1210,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1221,7 @@
         <v>2.41E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1232,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1251,7 +1243,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1262,7 +1254,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1273,7 +1265,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1284,7 +1276,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1287,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1306,7 +1298,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1317,7 +1309,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1328,7 +1320,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1339,7 +1331,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1350,7 +1342,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +1353,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1372,7 +1364,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1383,7 +1375,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1394,7 +1386,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1397,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1416,7 +1408,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1427,7 +1419,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1438,7 +1430,7 @@
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1449,7 +1441,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1460,7 +1452,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1471,7 +1463,7 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1482,7 +1474,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1493,7 +1485,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1504,7 +1496,7 @@
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1515,7 +1507,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1526,7 +1518,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1537,7 +1529,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1548,7 +1540,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1559,7 +1551,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1570,7 +1562,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1581,7 +1573,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1603,7 +1595,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1614,7 +1606,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1625,7 +1617,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1636,7 +1628,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1647,7 +1639,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1658,7 +1650,7 @@
         <v>1.89E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1661,7 @@
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1680,7 +1672,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1691,7 +1683,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1702,7 +1694,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1713,7 +1705,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1724,7 +1716,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1735,7 +1727,7 @@
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1746,7 +1738,7 @@
         <v>2.24E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1757,7 +1749,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1768,7 +1760,7 @@
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1779,7 +1771,7 @@
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1790,7 +1782,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1801,7 +1793,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1812,7 +1804,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1823,7 +1815,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1834,7 +1826,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1845,7 +1837,7 @@
         <v>2.41E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1856,7 +1848,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1867,7 +1859,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1878,7 +1870,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -1889,7 +1881,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -1900,7 +1892,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -1911,7 +1903,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -1922,7 +1914,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -1933,7 +1925,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -1944,7 +1936,7 @@
         <v>2.24E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -1955,7 +1947,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -1966,7 +1958,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -1977,7 +1969,7 @@
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -1988,7 +1980,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -1999,7 +1991,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2010,7 +2002,7 @@
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2021,7 +2013,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2032,7 +2024,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2043,7 +2035,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2054,7 +2046,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2065,7 +2057,7 @@
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2076,7 +2068,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2087,7 +2079,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2098,7 +2090,7 @@
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2109,7 +2101,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2120,7 +2112,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2131,7 +2123,7 @@
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2142,7 +2134,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2153,7 +2145,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2164,7 +2156,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2175,7 +2167,7 @@
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2186,7 +2178,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2197,7 +2189,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2208,7 +2200,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2219,7 +2211,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2230,7 +2222,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2241,7 +2233,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2252,7 +2244,7 @@
         <v>2.4799999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2263,7 +2255,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2274,7 +2266,7 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2285,7 +2277,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2296,7 +2288,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2307,7 +2299,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2318,7 +2310,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2329,7 +2321,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -2340,7 +2332,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2351,7 +2343,7 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2362,7 +2354,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2373,7 +2365,7 @@
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2384,7 +2376,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2395,7 +2387,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2406,7 +2398,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -2417,7 +2409,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -2428,7 +2420,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -2439,7 +2431,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -2450,7 +2442,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -2461,7 +2453,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -2472,7 +2464,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -2483,7 +2475,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2494,7 +2486,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -2505,7 +2497,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -2516,7 +2508,7 @@
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -2527,7 +2519,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -2538,7 +2530,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2549,7 +2541,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2571,7 +2563,7 @@
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -2582,7 +2574,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -2593,7 +2585,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -2604,7 +2596,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -2615,7 +2607,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -2626,7 +2618,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -2637,7 +2629,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -2648,7 +2640,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -2659,7 +2651,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -2670,7 +2662,7 @@
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>161</v>
       </c>

--- a/examples/multiscale-migration/data/A&B values for RTS.xlsx
+++ b/examples/multiscale-migration/data/A&B values for RTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrenner/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A0DEFF-65EF-2743-9C7D-798D866BD75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E349FC34-BB98-EB4F-BA28-55DCCB32ACF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="5780" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Burundi</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -879,11 +882,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F9B57A-779F-4DFB-B712-C5F8B0049503}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
       <c r="B1" t="s">
         <v>162</v>
       </c>
